--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_4_6.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_4_6.xlsx
@@ -482,772 +482,772 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.5013757786130772</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.4028849805350341</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.9054571695119211</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.6190784619707741</v>
       </c>
       <c r="F2" t="n">
-        <v>1.087675213813782</v>
+        <v>0.5518300533294678</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.738880455493927</v>
       </c>
       <c r="H2" t="n">
-        <v>3.105309009552002</v>
+        <v>0.07864782214164734</v>
       </c>
       <c r="I2" t="n">
-        <v>1.700355768203735</v>
+        <v>0.4281877279281616</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_22</t>
+          <t>model_4_6_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.8137628730313161</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.8775240629631477</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.3758037821782957</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.7112415491375191</v>
       </c>
       <c r="F3" t="n">
-        <v>1.087675213813782</v>
+        <v>0.2061096280813217</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.1515538543462753</v>
       </c>
       <c r="H3" t="n">
-        <v>3.105309009552002</v>
+        <v>0.5192532539367676</v>
       </c>
       <c r="I3" t="n">
-        <v>1.700355768203735</v>
+        <v>0.3245887160301208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_21</t>
+          <t>model_4_6_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.8232035498096431</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.8328014063406032</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.2922395505951255</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.656075584589394</v>
       </c>
       <c r="F4" t="n">
-        <v>1.087675213813782</v>
+        <v>0.1956615746021271</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.2068944573402405</v>
       </c>
       <c r="H4" t="n">
-        <v>3.105309009552002</v>
+        <v>0.5887681841850281</v>
       </c>
       <c r="I4" t="n">
-        <v>1.700355768203735</v>
+        <v>0.3865998685359955</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_20</t>
+          <t>model_4_6_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.824145197997904</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.8711611522063725</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.2745986205837299</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.672286815611612</v>
       </c>
       <c r="F5" t="n">
-        <v>1.087675213813782</v>
+        <v>0.194619432091713</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.1594274342060089</v>
       </c>
       <c r="H5" t="n">
-        <v>3.105309009552002</v>
+        <v>0.6034433245658875</v>
       </c>
       <c r="I5" t="n">
-        <v>1.700355768203735</v>
+        <v>0.3683770596981049</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_19</t>
+          <t>model_4_6_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.8275009426238287</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.8378948554128983</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.3104568055056217</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.6653887441676474</v>
       </c>
       <c r="F6" t="n">
-        <v>1.087675213813782</v>
+        <v>0.1909056454896927</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.2005917280912399</v>
       </c>
       <c r="H6" t="n">
-        <v>3.105309009552002</v>
+        <v>0.5736137628555298</v>
       </c>
       <c r="I6" t="n">
-        <v>1.700355768203735</v>
+        <v>0.3761310875415802</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_18</t>
+          <t>model_4_6_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.8314333949474141</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.8344704463030714</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.3492421212644471</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.6768999783048337</v>
       </c>
       <c r="F7" t="n">
-        <v>1.087675213813782</v>
+        <v>0.186553567647934</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.204829141497612</v>
       </c>
       <c r="H7" t="n">
-        <v>3.105309009552002</v>
+        <v>0.5413492321968079</v>
       </c>
       <c r="I7" t="n">
-        <v>1.700355768203735</v>
+        <v>0.3631915152072906</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_17</t>
+          <t>model_4_6_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.8353511062756684</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.8364547613302452</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.3760489314268468</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.6873920476892962</v>
       </c>
       <c r="F8" t="n">
-        <v>1.087675213813782</v>
+        <v>0.1822178065776825</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.2023737132549286</v>
       </c>
       <c r="H8" t="n">
-        <v>3.105309009552002</v>
+        <v>0.519049346446991</v>
       </c>
       <c r="I8" t="n">
-        <v>1.700355768203735</v>
+        <v>0.3513975441455841</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_16</t>
+          <t>model_4_6_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.8387856167032665</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.8402038965031353</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.3961585964543227</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.6965796863135352</v>
       </c>
       <c r="F9" t="n">
-        <v>1.087675213813782</v>
+        <v>0.178416833281517</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.197734460234642</v>
       </c>
       <c r="H9" t="n">
-        <v>3.105309009552002</v>
+        <v>0.5023205280303955</v>
       </c>
       <c r="I9" t="n">
-        <v>1.700355768203735</v>
+        <v>0.3410698771476746</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_15</t>
+          <t>model_4_6_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.8402185903602539</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.848357712776359</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.3866037855174403</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.6980047751341572</v>
       </c>
       <c r="F10" t="n">
-        <v>1.087675213813782</v>
+        <v>0.1768309324979782</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.1876447945833206</v>
       </c>
       <c r="H10" t="n">
-        <v>3.105309009552002</v>
+        <v>0.5102689862251282</v>
       </c>
       <c r="I10" t="n">
-        <v>1.700355768203735</v>
+        <v>0.3394679427146912</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_14</t>
+          <t>model_4_6_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.8431099315661166</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.8523317874685616</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.3968175733680811</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.7038780199257281</v>
       </c>
       <c r="F11" t="n">
-        <v>1.087675213813782</v>
+        <v>0.1736310720443726</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.1827272027730942</v>
       </c>
       <c r="H11" t="n">
-        <v>3.105309009552002</v>
+        <v>0.501772403717041</v>
       </c>
       <c r="I11" t="n">
-        <v>1.700355768203735</v>
+        <v>0.3328659534454346</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_13</t>
+          <t>model_4_6_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.8449530122960565</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.8537026758499656</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.4040686850507513</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.7072019002672183</v>
       </c>
       <c r="F12" t="n">
-        <v>1.087675213813782</v>
+        <v>0.1715913116931915</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.1810308396816254</v>
       </c>
       <c r="H12" t="n">
-        <v>3.105309009552002</v>
+        <v>0.4957403838634491</v>
       </c>
       <c r="I12" t="n">
-        <v>1.700355768203735</v>
+        <v>0.3291296064853668</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_23</t>
+          <t>model_4_6_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.8464310241482533</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.8632087012668473</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.3841772660525666</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.7058145025202875</v>
       </c>
       <c r="F13" t="n">
-        <v>1.087675213813782</v>
+        <v>0.1699555963277817</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.1692679226398468</v>
       </c>
       <c r="H13" t="n">
-        <v>3.105309009552002</v>
+        <v>0.5122875571250916</v>
       </c>
       <c r="I13" t="n">
-        <v>1.700355768203735</v>
+        <v>0.3306891620159149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_12</t>
+          <t>model_4_6_24</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.8467292770655194</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.7418947016777261</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.5003045194482674</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.6755562587778342</v>
       </c>
       <c r="F14" t="n">
-        <v>1.087675213813782</v>
+        <v>0.169625535607338</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.319383978843689</v>
       </c>
       <c r="H14" t="n">
-        <v>3.105309009552002</v>
+        <v>0.4156841933727264</v>
       </c>
       <c r="I14" t="n">
-        <v>1.700355768203735</v>
+        <v>0.3647019863128662</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_10</t>
+          <t>model_4_6_23</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.8486743129637274</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.7520328972847349</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.5033619167712369</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.682529543179228</v>
       </c>
       <c r="F15" t="n">
-        <v>1.087675213813782</v>
+        <v>0.1674729436635971</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.3068387806415558</v>
       </c>
       <c r="H15" t="n">
-        <v>3.105309009552002</v>
+        <v>0.4131408035755157</v>
       </c>
       <c r="I15" t="n">
-        <v>1.700355768203735</v>
+        <v>0.356863409280777</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_9</t>
+          <t>model_4_6_22</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.8515166852667585</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.7597670136164008</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.5231190291556438</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.6939169274880409</v>
       </c>
       <c r="F16" t="n">
-        <v>1.087675213813782</v>
+        <v>0.1643272787332535</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.2972684800624847</v>
       </c>
       <c r="H16" t="n">
-        <v>3.105309009552002</v>
+        <v>0.3967053890228271</v>
       </c>
       <c r="I16" t="n">
-        <v>1.700355768203735</v>
+        <v>0.3440630435943604</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_8</t>
+          <t>model_4_6_21</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.8570999737400755</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.782114018340464</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.5429528054707176</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.7138484476085311</v>
       </c>
       <c r="F17" t="n">
-        <v>1.087675213813782</v>
+        <v>0.1581482142210007</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.2696158885955811</v>
       </c>
       <c r="H17" t="n">
-        <v>3.105309009552002</v>
+        <v>0.3802061378955841</v>
       </c>
       <c r="I17" t="n">
-        <v>1.700355768203735</v>
+        <v>0.3216583132743835</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_7</t>
+          <t>model_4_6_20</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.8586633426390097</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.7994783336245628</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.5374304382425685</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.72204477817114</v>
       </c>
       <c r="F18" t="n">
-        <v>1.087675213813782</v>
+        <v>0.1564180105924606</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.2481289952993393</v>
       </c>
       <c r="H18" t="n">
-        <v>3.105309009552002</v>
+        <v>0.3848000466823578</v>
       </c>
       <c r="I18" t="n">
-        <v>1.700355768203735</v>
+        <v>0.3124449551105499</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_6</t>
+          <t>model_4_6_19</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.8619858479808258</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.8082670097948172</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.5592723231629828</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.7347734088569864</v>
       </c>
       <c r="F19" t="n">
-        <v>1.087675213813782</v>
+        <v>0.1527410000562668</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.237253725528717</v>
       </c>
       <c r="H19" t="n">
-        <v>3.105309009552002</v>
+        <v>0.3666303157806396</v>
       </c>
       <c r="I19" t="n">
-        <v>1.700355768203735</v>
+        <v>0.2981369197368622</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_5</t>
+          <t>model_4_6_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.8629205629763658</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.81442893653408</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.5640853171565566</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.7400408153354606</v>
       </c>
       <c r="F20" t="n">
-        <v>1.087675213813782</v>
+        <v>0.1517065465450287</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.22962886095047</v>
       </c>
       <c r="H20" t="n">
-        <v>3.105309009552002</v>
+        <v>0.3626265525817871</v>
       </c>
       <c r="I20" t="n">
-        <v>1.700355768203735</v>
+        <v>0.2922159135341644</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_4</t>
+          <t>model_4_6_17</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.8630385039166319</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.8159382878378159</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.5641476916585437</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.7409421875002662</v>
       </c>
       <c r="F21" t="n">
-        <v>1.087675213813782</v>
+        <v>0.1515760272741318</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.2277611643075943</v>
       </c>
       <c r="H21" t="n">
-        <v>3.105309009552002</v>
+        <v>0.3625746369361877</v>
       </c>
       <c r="I21" t="n">
-        <v>1.700355768203735</v>
+        <v>0.2912026941776276</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_3</t>
+          <t>model_4_6_16</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.8633990572767417</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.8183188209938738</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.5651298477847846</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.7426718024364617</v>
       </c>
       <c r="F22" t="n">
-        <v>1.087675213813782</v>
+        <v>0.1511770039796829</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.2248154431581497</v>
       </c>
       <c r="H22" t="n">
-        <v>3.105309009552002</v>
+        <v>0.3617576062679291</v>
       </c>
       <c r="I22" t="n">
-        <v>1.700355768203735</v>
+        <v>0.2892584800720215</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_2</t>
+          <t>model_4_6_15</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.8670793598768672</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.8258133927761443</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.5922304238241984</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.7564771232673304</v>
       </c>
       <c r="F23" t="n">
-        <v>1.087675213813782</v>
+        <v>0.1471039950847626</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.2155415415763855</v>
       </c>
       <c r="H23" t="n">
-        <v>3.105309009552002</v>
+        <v>0.3392133116722107</v>
       </c>
       <c r="I23" t="n">
-        <v>1.700355768203735</v>
+        <v>0.2737401127815247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_1</t>
+          <t>model_4_6_12</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.8678596145333395</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.8542205803309297</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.5725861173499572</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.766191151626605</v>
       </c>
       <c r="F24" t="n">
-        <v>1.087675213813782</v>
+        <v>0.1462404727935791</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.1803899854421616</v>
       </c>
       <c r="H24" t="n">
-        <v>3.105309009552002</v>
+        <v>0.3555549383163452</v>
       </c>
       <c r="I24" t="n">
-        <v>1.700355768203735</v>
+        <v>0.2628207206726074</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_11</t>
+          <t>model_4_6_14</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.8700180874251131</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.8350790783079319</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.6093021058164019</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.7678231549003828</v>
       </c>
       <c r="F25" t="n">
-        <v>1.087675213813782</v>
+        <v>0.1438516825437546</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.2040760070085526</v>
       </c>
       <c r="H25" t="n">
-        <v>3.105309009552002</v>
+        <v>0.325011819601059</v>
       </c>
       <c r="I25" t="n">
-        <v>1.700355768203735</v>
+        <v>0.2609862387180328</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_24</t>
+          <t>model_4_6_13</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.8700368875986981</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1152635732698453</v>
+        <v>0.843598651617546</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.02182782534915884</v>
+        <v>0.6012481233254092</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.001435094818184268</v>
+        <v>0.7699827340572721</v>
       </c>
       <c r="F26" t="n">
-        <v>1.087675213813782</v>
+        <v>0.143830880522728</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4515082538127899</v>
+        <v>0.1935337334871292</v>
       </c>
       <c r="H26" t="n">
-        <v>3.105309009552002</v>
+        <v>0.3317117393016815</v>
       </c>
       <c r="I26" t="n">
-        <v>1.700355768203735</v>
+        <v>0.2585587203502655</v>
       </c>
     </row>
   </sheetData>
